--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreASL\ExploreASL\External\ExploreQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EF25B-2BEB-4357-9FA0-E1307716CE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11BAC8-8F81-4F6E-BC88-AB80821C72C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="192">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -94,9 +94,6 @@
     <t>AI_perc</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>IQR</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>WM2MAX</t>
   </si>
   <si>
-    <t>Spatial</t>
-  </si>
-  <si>
     <t>FBER_WMref_Ratio</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>GhostToSignal</t>
   </si>
   <si>
-    <t>Temporal</t>
-  </si>
-  <si>
     <t>tSNR_GM_Ratio</t>
   </si>
   <si>
@@ -451,9 +442,6 @@
     <t>CJV</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Scantype</t>
   </si>
   <si>
@@ -484,22 +472,10 @@
     <t>Structural_Noise</t>
   </si>
   <si>
-    <t>Structural_IT</t>
-  </si>
-  <si>
-    <t>Structural_General</t>
-  </si>
-  <si>
     <t>Structural_Inhomogeneity</t>
   </si>
   <si>
     <t>Structural_Descriptives</t>
-  </si>
-  <si>
-    <t>Functional_Spatial</t>
-  </si>
-  <si>
-    <t>Functional_Temporal</t>
   </si>
   <si>
     <t>Functional_Motion</t>
@@ -621,6 +597,24 @@
   </si>
   <si>
     <t>Configuration settings for Shiny module of visualization</t>
+  </si>
+  <si>
+    <t>Structural_Motion</t>
+  </si>
+  <si>
+    <t>Functional_Noise</t>
+  </si>
+  <si>
+    <t>Functional_Asymmetry</t>
+  </si>
+  <si>
+    <t>Functional_Inhomogeneity</t>
+  </si>
+  <si>
+    <t>Diffusion_Asymmetry</t>
+  </si>
+  <si>
+    <t>Diffusion_Inhomogeneity</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1096,7 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1110,7 +1104,7 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1121,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1146,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,54 +1148,54 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -1209,13 +1203,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -1223,13 +1217,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -1237,13 +1231,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
@@ -1251,61 +1245,61 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1316,41 +1310,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB9729-9429-4DD0-AFF4-15FA894A0E1C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1358,7 +1353,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1366,7 +1361,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1374,7 +1369,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1382,7 +1377,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1390,7 +1385,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1398,23 +1393,23 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1422,7 +1417,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1430,7 +1425,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1438,9 +1433,25 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
@@ -1454,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E120"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,19 +1480,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1489,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;"_"&amp;B2&amp;"_"&amp;C2</f>
@@ -1507,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;C3</f>
@@ -1520,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1528,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1546,14 +1557,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>Structural_IT_FBER_WMref_Ratio</v>
+        <v>Structural_Motion_FBER_WMref_Ratio</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1564,14 +1575,14 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>Structural_IT_EFC_bits</v>
+        <v>Structural_Motion_EFC_bits</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1600,14 +1611,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>Structural_General_IQR</v>
+        <v>Structural_Inhomogeneity_IQR</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1618,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1636,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1654,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1672,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1690,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1708,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1726,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1744,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1762,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1780,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1798,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1816,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1834,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1852,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1870,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1888,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1906,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1924,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1942,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1960,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1978,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -1996,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2014,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2032,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2050,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2068,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2086,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2104,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2122,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2140,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2158,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2176,14 +2187,14 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Spatial_FBER_WMref_Ratio</v>
+        <v>Functional_Noise_tSNR_GM_Ratio</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2194,14 +2205,14 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Spatial_EFC_bits</v>
+        <v>Functional_Noise_tSNR_WM_Ratio</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2212,14 +2223,14 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Spatial_GhostToSignal</v>
+        <v>Functional_Noise_tSNR_CSF_Ratio</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2230,14 +2241,14 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_GM_Ratio</v>
+        <v>Functional_Noise_tSNR_WMref_Ratio</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2248,14 +2259,14 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>58</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_WM_Ratio</v>
+        <v>Functional_Noise_tSNR_GMWM_Ratio</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2266,14 +2277,14 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_CSF_Ratio</v>
+        <v>Functional_Noise_tSNR_GMWM_WMref_Ratio</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2284,14 +2295,14 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_WMref_Ratio</v>
+        <v>Functional_Noise_tSNR_Physio2Thermal_Ratio</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2302,14 +2313,14 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_GMWM_Ratio</v>
+        <v>Functional_Noise_tSNR_Slope_Corr</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2320,14 +2331,14 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_GMWM_WMref_Ratio</v>
+        <v>Functional_Motion_GlobalCorrelation</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2338,14 +2349,14 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_Physio2Thermal_Ratio</v>
+        <f>A49&amp;"_"&amp;B49&amp;"_"&amp;C49</f>
+        <v>Functional_Motion_FBER_WMref_Ratio</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2356,14 +2367,14 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>Functional_Temporal_tSNR_Slope_Corr</v>
+        <f>A50&amp;"_"&amp;B50&amp;"_"&amp;C50</f>
+        <v>Functional_Motion_EFC_bits</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2374,14 +2385,14 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>Functional_Temporal_GlobalCorrelation</v>
+        <f>A51&amp;"_"&amp;B51&amp;"_"&amp;C51</f>
+        <v>Functional_Motion_GhostToSignal</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2392,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2410,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2428,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
         <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2446,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2464,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2482,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2500,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2518,10 +2529,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2536,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2554,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2572,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2590,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2608,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2626,10 +2637,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2644,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -2662,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D131" si="1">A67&amp;"_"&amp;B67&amp;"_"&amp;C67</f>
@@ -2680,10 +2691,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2698,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2716,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2734,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2752,10 +2763,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2770,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2788,10 +2799,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2806,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2824,10 +2835,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2842,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2860,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2878,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2896,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2914,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2932,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2950,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -2968,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -2986,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -3004,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -3022,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -3040,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -3058,10 +3069,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D89" t="str">
         <f>A89&amp;"_"&amp;B89&amp;"_"&amp;C89</f>
@@ -3076,10 +3087,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -3094,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -3112,10 +3123,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -3130,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -3148,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -3166,10 +3177,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -3184,10 +3195,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -3202,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -3220,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -3238,10 +3249,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -3256,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -3274,10 +3285,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -3292,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -3310,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -3328,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -3346,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -3364,10 +3375,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -3382,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -3400,10 +3411,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -3418,10 +3429,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -3436,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -3454,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C111" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -3472,10 +3483,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -3490,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -3508,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -3526,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -3544,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -3562,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -3580,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -3598,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -3616,10 +3627,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -3634,10 +3645,10 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -3652,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -3670,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -3688,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -3706,10 +3717,10 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -3724,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -3742,10 +3753,10 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -3760,10 +3771,10 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -3778,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
@@ -3796,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
@@ -3814,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="1"/>
@@ -3832,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D138" si="2">A132&amp;"_"&amp;B132&amp;"_"&amp;C132</f>
@@ -3850,10 +3861,10 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
@@ -3868,10 +3879,10 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
@@ -3886,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C135" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
@@ -3904,10 +3915,10 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
@@ -3922,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
@@ -3940,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A11BAC8-8F81-4F6E-BC88-AB80821C72C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C12B50-B38C-4062-B6BC-D3174BE4FB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>dw_run-1_dwi.nii</t>
   </si>
   <si>
-    <t>D:\GitHub\ExploreASL\ExploreASL\</t>
-  </si>
-  <si>
     <t>PE_properties</t>
   </si>
   <si>
@@ -569,9 +566,6 @@
   </si>
   <si>
     <t>\d{3}EPAD\d{5}</t>
-  </si>
-  <si>
-    <t>D:\Lavoro\DataCurationProcessing\EPAD\analysis</t>
   </si>
   <si>
     <t>StructFold</t>
@@ -615,6 +609,12 @@
   </si>
   <si>
     <t>Diffusion_Inhomogeneity</t>
+  </si>
+  <si>
+    <t>/data/RAD/share/EPAD/EPAD500.0/analysis</t>
+  </si>
+  <si>
+    <t>/data/RAD/share/EPAD/scripts/ExploreASL</t>
   </si>
 </sst>
 </file>
@@ -1007,16 +1007,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1115,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1148,54 +1148,54 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
@@ -1245,61 +1245,61 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1326,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1480,19 +1480,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;"_"&amp;B2&amp;"_"&amp;C2</f>
@@ -1518,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;C3</f>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1539,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1557,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1575,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1593,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1611,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1629,10 +1629,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1701,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1719,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1737,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1755,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1773,10 +1773,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1791,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1827,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1863,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1881,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1899,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1935,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1953,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2061,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2097,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2115,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2133,10 +2133,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2151,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2169,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2187,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2205,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2223,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2241,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2259,10 +2259,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2277,10 +2277,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2295,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2313,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2331,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2349,10 +2349,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="str">
         <f>A49&amp;"_"&amp;B49&amp;"_"&amp;C49</f>
@@ -2367,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="str">
         <f>A50&amp;"_"&amp;B50&amp;"_"&amp;C50</f>
@@ -2385,10 +2385,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="str">
         <f>A51&amp;"_"&amp;B51&amp;"_"&amp;C51</f>
@@ -2403,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
         <v>63</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2421,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2439,10 +2439,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2457,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2475,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2493,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2511,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2529,10 +2529,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2547,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2565,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2583,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2601,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2619,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2637,10 +2637,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2655,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -2673,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D131" si="1">A67&amp;"_"&amp;B67&amp;"_"&amp;C67</f>
@@ -2691,10 +2691,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2709,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2727,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2745,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2763,10 +2763,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2781,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2799,10 +2799,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2817,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2835,10 +2835,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2871,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2889,10 +2889,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2907,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2925,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2943,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2961,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -2979,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -2997,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -3015,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -3033,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
         <v>79</v>
-      </c>
-      <c r="C87" t="s">
-        <v>80</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -3051,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -3069,10 +3069,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" t="str">
         <f>A89&amp;"_"&amp;B89&amp;"_"&amp;C89</f>
@@ -3087,10 +3087,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -3105,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -3123,10 +3123,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -3141,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -3159,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -3177,10 +3177,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -3195,10 +3195,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -3213,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -3231,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -3249,10 +3249,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -3267,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -3285,10 +3285,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -3303,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -3321,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -3339,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -3357,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -3375,10 +3375,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -3393,10 +3393,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -3411,10 +3411,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -3429,10 +3429,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -3447,10 +3447,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -3465,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -3483,10 +3483,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -3501,10 +3501,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -3537,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -3555,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -3573,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -3591,10 +3591,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -3609,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -3627,10 +3627,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -3645,10 +3645,10 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -3663,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -3681,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -3699,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -3717,10 +3717,10 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -3735,10 +3735,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -3753,10 +3753,10 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -3771,10 +3771,10 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -3789,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
@@ -3807,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
@@ -3825,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="1"/>
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D138" si="2">A132&amp;"_"&amp;B132&amp;"_"&amp;C132</f>
@@ -3861,10 +3861,10 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
@@ -3879,10 +3879,10 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
@@ -3897,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
@@ -3915,10 +3915,10 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
@@ -3933,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
@@ -3951,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C12B50-B38C-4062-B6BC-D3174BE4FB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E0894-5B39-4F20-8B2D-B4010DD59B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="192" yWindow="0" windowWidth="19248" windowHeight="11772" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="194">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>/data/RAD/share/EPAD/scripts/ExploreASL</t>
+  </si>
+  <si>
+    <t>PathToMotion</t>
+  </si>
+  <si>
+    <t>/data/RAD/share/EPAD/EPAD500.0/analysis/Population/MotionASL</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,11 +1300,19 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>173</v>
       </c>
     </row>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E0894-5B39-4F20-8B2D-B4010DD59B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DA96A-8C77-4C90-9E3D-CE67141BC870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="0" windowWidth="19248" windowHeight="11772" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>/data/RAD/share/EPAD/EPAD500.0/analysis/Population/MotionASL</t>
+  </si>
+  <si>
+    <t>SSE_im</t>
+  </si>
+  <si>
+    <t>DTIfit_sse.nii</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -695,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1036,7 @@
     <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1040,30 +1049,28 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
+      <c r="G1" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1071,249 +1078,274 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G7" s="7" t="s">
-        <v>183</v>
-      </c>
+    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>175</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="G12" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1479,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DA96A-8C77-4C90-9E3D-CE67141BC870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA594C-0CF1-4086-86E8-7FAC1A421C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="384" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>^\d{3}</t>
-  </si>
-  <si>
-    <t>\d{3}EPAD\d{5}</t>
   </si>
   <si>
     <t>StructFold</t>
@@ -611,22 +608,28 @@
     <t>Diffusion_Inhomogeneity</t>
   </si>
   <si>
-    <t>/data/RAD/share/EPAD/EPAD500.0/analysis</t>
-  </si>
-  <si>
-    <t>/data/RAD/share/EPAD/scripts/ExploreASL</t>
-  </si>
-  <si>
     <t>PathToMotion</t>
   </si>
   <si>
-    <t>/data/RAD/share/EPAD/EPAD500.0/analysis/Population/MotionASL</t>
-  </si>
-  <si>
     <t>SSE_im</t>
   </si>
   <si>
     <t>DTIfit_sse.nii</t>
+  </si>
+  <si>
+    <t>D:\Lavoro\DataCurationProcessing\EPAD\analysis</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD500.0</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/scripts/ExploreASL</t>
+  </si>
+  <si>
+    <t>\d{3}EPAD\d{5}_1</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD_repository/analysis/Population/MotionASL</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1059,7 +1062,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1141,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1159,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1168,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1183,49 +1186,49 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
@@ -1326,10 +1329,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,10 +1345,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1423,7 +1426,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1511,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1523,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3287,7 +3290,7 @@
         <v>Diffusion_Descriptives_FA_WM_SD</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3719,7 +3722,7 @@
         <v>Diffusion_Descriptives_ADC_WM_SD</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA594C-0CF1-4086-86E8-7FAC1A421C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E95618-8134-4A91-8761-46FB28BAF414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>DTIfit_sse.nii</t>
-  </si>
-  <si>
-    <t>D:\Lavoro\DataCurationProcessing\EPAD\analysis</t>
   </si>
   <si>
     <t>/radshare/EPAD/EPAD500.0</t>
@@ -1026,7 +1023,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
@@ -1162,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1171,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1332,7 +1329,7 @@
         <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,10 +1509,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2645,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2699,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2843,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3149,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3419,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3455,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3563,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3617,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3851,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -4014,7 +4012,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G138" xr:uid="{20CC1350-3EB7-4BAF-8A4B-A7BE04A258BB}"/>
+  <autoFilter ref="A1:G138" xr:uid="{20CC1350-3EB7-4BAF-8A4B-A7BE04A258BB}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E95618-8134-4A91-8761-46FB28BAF414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2526040A-41B7-40E9-A16B-A371D264E708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>/radshare/EPAD/EPAD_repository/analysis/Population/MotionASL</t>
+  </si>
+  <si>
+    <t>/data/RAD/share/EPAD/EPAD500.0</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2526040A-41B7-40E9-A16B-A371D264E708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D1F62-9DED-4C79-A83A-7FD531F53A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Visualization Module</t>
   </si>
   <si>
-    <t>T1_ORI.nii</t>
-  </si>
-  <si>
     <t>func_run-1_bold.nii</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
   </si>
   <si>
     <t>FAIm</t>
-  </si>
-  <si>
-    <t>dwi_run-1_dwi.nii</t>
   </si>
   <si>
     <t>dwi_run-1_ADC.nii</t>
@@ -617,9 +611,6 @@
     <t>DTIfit_sse.nii</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD500.0</t>
-  </si>
-  <si>
     <t>/radshare/EPAD/scripts/ExploreASL</t>
   </si>
   <si>
@@ -629,7 +620,16 @@
     <t>/radshare/EPAD/EPAD_repository/analysis/Population/MotionASL</t>
   </si>
   <si>
-    <t>/data/RAD/share/EPAD/EPAD500.0</t>
+    <t>SD.nii</t>
+  </si>
+  <si>
+    <t>D:\Lavoro\DataCurationProcessing\EPAD_QC\EPAD_QC</t>
+  </si>
+  <si>
+    <t>DTIfit_FA.nii</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD_repository</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1180,55 +1180,55 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
@@ -1236,119 +1236,119 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1375,26 +1375,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1530,19 +1530,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1550,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;"_"&amp;B2&amp;"_"&amp;C2</f>
@@ -1568,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;C3</f>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1607,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1625,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1643,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1697,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1715,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1751,10 +1751,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1787,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1895,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1931,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1949,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1985,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2021,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2057,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2075,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2093,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -2129,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -2165,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -2183,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -2201,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -2237,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -2255,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -2273,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2291,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2309,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -2327,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2345,10 +2345,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -2363,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -2381,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2399,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" t="str">
         <f>A49&amp;"_"&amp;B49&amp;"_"&amp;C49</f>
@@ -2417,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" t="str">
         <f>A50&amp;"_"&amp;B50&amp;"_"&amp;C50</f>
@@ -2435,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" t="str">
         <f>A51&amp;"_"&amp;B51&amp;"_"&amp;C51</f>
@@ -2453,10 +2453,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
         <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2471,10 +2471,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2489,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2507,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2525,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2543,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2561,10 +2561,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2579,10 +2579,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2597,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -2615,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -2633,10 +2633,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2651,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2669,10 +2669,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2687,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2705,10 +2705,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -2723,10 +2723,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D131" si="1">A67&amp;"_"&amp;B67&amp;"_"&amp;C67</f>
@@ -2741,10 +2741,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -2759,10 +2759,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -2777,10 +2777,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -2795,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -2813,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2831,10 +2831,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2849,10 +2849,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2867,10 +2867,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2885,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2903,10 +2903,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2921,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2939,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2957,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2975,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2993,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -3011,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -3029,10 +3029,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -3047,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -3065,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
         <v>78</v>
-      </c>
-      <c r="C87" t="s">
-        <v>79</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -3101,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" t="str">
         <f>A89&amp;"_"&amp;B89&amp;"_"&amp;C89</f>
@@ -3137,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -3155,10 +3155,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -3173,10 +3173,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -3191,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -3209,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -3227,10 +3227,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -3245,10 +3245,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -3263,10 +3263,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -3281,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -3299,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -3317,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -3335,10 +3335,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -3353,10 +3353,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -3371,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -3389,10 +3389,10 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -3407,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -3443,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -3461,10 +3461,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -3479,10 +3479,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -3497,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -3515,10 +3515,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -3533,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -3551,10 +3551,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -3569,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -3587,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -3605,10 +3605,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -3641,10 +3641,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -3659,10 +3659,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -3677,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -3695,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -3713,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -3731,10 +3731,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -3749,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -3767,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -3785,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -3803,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -3821,10 +3821,10 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -3839,10 +3839,10 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
@@ -3857,10 +3857,10 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
@@ -3875,10 +3875,10 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="1"/>
@@ -3893,10 +3893,10 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D138" si="2">A132&amp;"_"&amp;B132&amp;"_"&amp;C132</f>
@@ -3911,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
@@ -3929,10 +3929,10 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
@@ -3947,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
@@ -3965,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
@@ -3983,10 +3983,10 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
@@ -4001,10 +4001,10 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D1F62-9DED-4C79-A83A-7FD531F53A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052A241-9F3C-4F31-9C90-023B302BBDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="3924" yWindow="408" windowWidth="15840" windowHeight="11028" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <t>DTIfit_sse.nii</t>
   </si>
   <si>
-    <t>/radshare/EPAD/scripts/ExploreASL</t>
-  </si>
-  <si>
     <t>\d{3}EPAD\d{5}_1</t>
   </si>
   <si>
@@ -630,6 +627,9 @@
   </si>
   <si>
     <t>/radshare/EPAD/EPAD_repository</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/scripts/ExploreASL1.0</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1259,7 +1259,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>161</v>
@@ -1332,7 +1332,7 @@
         <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052A241-9F3C-4F31-9C90-023B302BBDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD2A7E-CC34-44D6-A02D-7A2429441AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3924" yWindow="408" windowWidth="15840" windowHeight="11028" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
@@ -626,10 +626,10 @@
     <t>DTIfit_FA.nii</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD_repository</t>
-  </si>
-  <si>
     <t>/radshare/EPAD/scripts/ExploreASL1.0</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD1500.0</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="8"/>
     </row>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD2A7E-CC34-44D6-A02D-7A2429441AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAA567-46CD-4B24-BE2C-7524CB59DFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="408" windowWidth="15840" windowHeight="11028" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
     <t>/radshare/EPAD/scripts/ExploreASL1.0</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD1500.0</t>
+    <t>/scratch/EPAD/EPAD1500.0</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAA567-46CD-4B24-BE2C-7524CB59DFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B6F27-A4C1-41A9-9DB9-84EF8B3267ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1512,11 +1512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E122"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2661,10 +2660,10 @@
         <v>Functional_Descriptives_WM_SD</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -4015,13 +4014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G138" xr:uid="{20CC1350-3EB7-4BAF-8A4B-A7BE04A258BB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G138" xr:uid="{20CC1350-3EB7-4BAF-8A4B-A7BE04A258BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B6F27-A4C1-41A9-9DB9-84EF8B3267ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D52368-E81B-4A03-A5C0-06E6487C1421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -614,22 +614,22 @@
     <t>\d{3}EPAD\d{5}_1</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD_repository/analysis/Population/MotionASL</t>
-  </si>
-  <si>
     <t>SD.nii</t>
   </si>
   <si>
-    <t>D:\Lavoro\DataCurationProcessing\EPAD_QC\EPAD_QC</t>
-  </si>
-  <si>
     <t>DTIfit_FA.nii</t>
   </si>
   <si>
     <t>/radshare/EPAD/scripts/ExploreASL1.0</t>
   </si>
   <si>
-    <t>/scratch/EPAD/EPAD1500.0</t>
+    <t>D:\Lavoro\EPAD_tobecopied</t>
+  </si>
+  <si>
+    <t>/scratch/EPAD/EPAD_rerun</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD_rerun/analysis/Population/MotionASL</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1259,7 +1259,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>161</v>
@@ -1332,7 +1332,7 @@
         <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D52368-E81B-4A03-A5C0-06E6487C1421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D007B-DF01-4260-B422-769F7F841912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="1092" yWindow="48" windowWidth="21600" windowHeight="11328" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,7 +1688,7 @@
         <v>Structural_Inhomogeneity_BI_mean</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>Structural_Descriptives_GM_Skewness</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1850,7 +1850,7 @@
         <v>Structural_Descriptives_WM_Skewness</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>Structural_Descriptives_CSF_Skewness</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
         <v>Structural_Descriptives_WholeBrain_Skewness</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2120,7 +2120,7 @@
         <v>Structural_Descriptives_WholeBrain_Kurtosis</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D007B-DF01-4260-B422-769F7F841912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A023B7E7-6D0F-4AAF-81F5-3243114FA78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="48" windowWidth="21600" windowHeight="11328" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="3252" yWindow="2868" windowWidth="17580" windowHeight="9384" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -620,16 +620,16 @@
     <t>DTIfit_FA.nii</t>
   </si>
   <si>
-    <t>/radshare/EPAD/scripts/ExploreASL1.0</t>
-  </si>
-  <si>
     <t>D:\Lavoro\EPAD_tobecopied</t>
   </si>
   <si>
-    <t>/scratch/EPAD/EPAD_rerun</t>
-  </si>
-  <si>
     <t>/radshare/EPAD/EPAD_rerun/analysis/Population/MotionASL</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD1500.0_eligible</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/scripts/ExploreASL</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1332,7 +1332,7 @@
         <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A023B7E7-6D0F-4AAF-81F5-3243114FA78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FBE08-E01A-46EA-906A-C153FB23124D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="2868" windowWidth="17580" windowHeight="9384" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2354,7 @@
         <v>Functional_Noise_tSNR_Physio2Thermal_Ratio</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
         <v>Functional_Noise_tSNR_Slope_Corr</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FBE08-E01A-46EA-906A-C153FB23124D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14893FD-D742-433F-B9FC-4004E2762940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="33315" yWindow="510" windowWidth="21600" windowHeight="11325" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="198">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>/radshare/EPAD/scripts/ExploreASL</t>
+  </si>
+  <si>
+    <t>T1_ORI.nii</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1242,7 @@
         <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>159</v>
@@ -1514,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Home\Github\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14893FD-D742-433F-B9FC-4004E2762940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308E552-701A-4AF8-B8AB-2F4769546BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="510" windowWidth="21600" windowHeight="11325" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-55200" yWindow="915" windowWidth="21600" windowHeight="12360" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -1028,21 +1028,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.3125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.89453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5234375" customWidth="1"/>
+    <col min="7" max="7" width="40.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1068,7 +1068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1082,12 +1082,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -1097,12 +1097,12 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,19 +1130,19 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>175</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>176</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>159</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>160</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>167</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>169</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>187</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>170</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
@@ -1368,15 +1368,15 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5234375" customWidth="1"/>
+    <col min="2" max="2" width="13.3125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -1521,16 +1521,16 @@
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="29.41796875" customWidth="1"/>
+    <col min="4" max="4" width="43.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>3</v>
       </c>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Home\Github\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308E552-701A-4AF8-B8AB-2F4769546BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511B900-B243-4E88-B74D-EFBB7B1616EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55200" yWindow="915" windowWidth="21600" windowHeight="12360" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-54825" yWindow="2205" windowWidth="21600" windowHeight="12360" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="193">
   <si>
     <t>Parameter Extraction Module</t>
   </si>
@@ -502,15 +502,6 @@
     <t>CSFim</t>
   </si>
   <si>
-    <t>c1T1.nii</t>
-  </si>
-  <si>
-    <t>c2T1.nii</t>
-  </si>
-  <si>
-    <t>c3T1.nii</t>
-  </si>
-  <si>
     <t>SSE_WM_Mean</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>Struct_Y_file</t>
   </si>
   <si>
-    <t>y_T1.nii</t>
-  </si>
-  <si>
     <t>Func_Y_file</t>
   </si>
   <si>
@@ -554,9 +542,6 @@
   </si>
   <si>
     <t>TopUp_fieldcoef.nii</t>
-  </si>
-  <si>
-    <t>^\d{3}</t>
   </si>
   <si>
     <t>StructFold</t>
@@ -611,9 +596,6 @@
     <t>DTIfit_sse.nii</t>
   </si>
   <si>
-    <t>\d{3}EPAD\d{5}_1</t>
-  </si>
-  <si>
     <t>SD.nii</t>
   </si>
   <si>
@@ -626,13 +608,16 @@
     <t>/radshare/EPAD/EPAD_rerun/analysis/Population/MotionASL</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD1500.0_eligible</t>
-  </si>
-  <si>
     <t>/radshare/EPAD/scripts/ExploreASL</t>
   </si>
   <si>
-    <t>T1_ORI.nii</t>
+    <t>/scratch/dvannederpelt/exploreQC/GE</t>
+  </si>
+  <si>
+    <t>sub-\w\d{1,3}</t>
+  </si>
+  <si>
+    <t>tp1/anat</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1056,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1065,7 +1050,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1147,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1165,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -1174,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1182,56 +1167,56 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
@@ -1239,13 +1224,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>150</v>
@@ -1253,27 +1235,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
@@ -1281,77 +1263,65 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1367,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1429,7 +1399,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1445,7 +1415,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1453,7 +1423,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1485,7 +1455,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1493,7 +1463,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1717,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1735,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1753,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1771,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1789,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1807,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -1825,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1843,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -1861,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1879,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1897,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1915,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1933,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1951,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1969,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -1987,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -2005,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -2023,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -2041,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -2059,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -2077,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -2095,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -2113,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -2131,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
@@ -2149,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
         <v>44</v>
@@ -2167,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
@@ -2185,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -2203,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
@@ -2221,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -2527,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
@@ -2545,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -2563,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
@@ -2581,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -2599,7 +2569,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
@@ -2617,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -2635,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -2653,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -2671,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
@@ -2689,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
         <v>33</v>
@@ -2707,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -2725,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
         <v>37</v>
@@ -2743,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
@@ -2761,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
         <v>39</v>
@@ -2779,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
         <v>40</v>
@@ -2797,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
         <v>43</v>
@@ -2815,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
         <v>44</v>
@@ -2833,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>45</v>
@@ -2851,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
         <v>46</v>
@@ -2869,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
         <v>47</v>
@@ -3124,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D89" t="str">
         <f>A89&amp;"_"&amp;B89&amp;"_"&amp;C89</f>
@@ -3139,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
         <v>80</v>
@@ -3157,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -3175,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s">
         <v>82</v>
@@ -3193,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
         <v>83</v>
@@ -3211,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
         <v>84</v>
@@ -3229,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
@@ -3247,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
@@ -3265,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
         <v>87</v>
@@ -3283,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>88</v>
@@ -3301,7 +3271,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>89</v>
@@ -3319,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
         <v>90</v>
@@ -3337,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>91</v>
@@ -3355,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C102" t="s">
         <v>92</v>
@@ -3373,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C103" t="s">
         <v>93</v>
@@ -3391,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
         <v>94</v>
@@ -3409,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
         <v>95</v>
@@ -3427,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C106" t="s">
         <v>96</v>
@@ -3445,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C107" t="s">
         <v>97</v>
@@ -3463,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C108" t="s">
         <v>98</v>
@@ -3481,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C109" t="s">
         <v>99</v>
@@ -3499,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
         <v>100</v>
@@ -3517,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
         <v>101</v>
@@ -3535,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>102</v>
@@ -3553,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s">
         <v>103</v>
@@ -3571,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C114" t="s">
         <v>104</v>
@@ -3589,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
         <v>105</v>
@@ -3607,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>106</v>
@@ -3625,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C117" t="s">
         <v>107</v>
@@ -3643,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
         <v>108</v>
@@ -3661,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C119" t="s">
         <v>109</v>
@@ -3679,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
         <v>110</v>
@@ -3697,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
         <v>111</v>
@@ -3715,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
         <v>112</v>
@@ -3733,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C123" t="s">
         <v>113</v>
@@ -3751,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
         <v>114</v>
@@ -3769,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C125" t="s">
         <v>115</v>
@@ -3787,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C126" t="s">
         <v>116</v>
@@ -3805,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C127" t="s">
         <v>117</v>
@@ -3823,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C128" t="s">
         <v>118</v>
@@ -3841,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
         <v>119</v>
@@ -3859,7 +3829,7 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
         <v>120</v>
@@ -3877,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
         <v>121</v>
@@ -3895,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
         <v>122</v>
@@ -3913,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C133" t="s">
         <v>123</v>
@@ -3931,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
         <v>124</v>
@@ -3949,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C135" t="s">
         <v>125</v>
@@ -3967,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C136" t="s">
         <v>126</v>
@@ -3985,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
         <v>127</v>
@@ -4003,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C138" t="s">
         <v>128</v>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Home\Github\ExploreQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vumc.nl\home$\store4ever\d.nederpelt\Documenten\GitHub\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511B900-B243-4E88-B74D-EFBB7B1616EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54825" yWindow="2205" windowWidth="21600" windowHeight="12360" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="-54825" yWindow="2205" windowWidth="21600" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ParameterSheet!$A$1:$G$138</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -623,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1010,24 +1009,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.3125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.41796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.89453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.41796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5234375" customWidth="1"/>
-    <col min="7" max="7" width="40.89453125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1053,7 +1052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1078,11 +1077,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,11 +1092,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1115,19 +1114,19 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1144,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,13 +1162,13 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>168</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>169</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>170</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>171</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>156</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>157</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>163</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
@@ -1272,27 +1271,27 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>161</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>182</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>166</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>183</v>
       </c>
@@ -1331,22 +1330,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB9729-9429-4DD0-AFF4-15FA894A0E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5234375" customWidth="1"/>
-    <col min="2" max="2" width="13.3125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -1484,23 +1483,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.20703125" customWidth="1"/>
-    <col min="3" max="3" width="29.41796875" customWidth="1"/>
-    <col min="4" max="4" width="43.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.41796875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +3986,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G138" xr:uid="{20CC1350-3EB7-4BAF-8A4B-A7BE04A258BB}"/>
+  <autoFilter ref="A1:G138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="8"/>
     </row>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExploreQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Home\Github\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14893FD-D742-433F-B9FC-4004E2762940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFED6EB-E6F4-4398-A894-D80E84BA8EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33315" yWindow="510" windowWidth="21600" windowHeight="11325" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
+    <workbookView xWindow="642" yWindow="492" windowWidth="21600" windowHeight="11010" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigurationSheet" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <t>DTIfit_sse.nii</t>
   </si>
   <si>
-    <t>\d{3}EPAD\d{5}_1</t>
-  </si>
-  <si>
     <t>SD.nii</t>
   </si>
   <si>
@@ -623,16 +620,19 @@
     <t>D:\Lavoro\EPAD_tobecopied</t>
   </si>
   <si>
-    <t>/radshare/EPAD/EPAD_rerun/analysis/Population/MotionASL</t>
-  </si>
-  <si>
-    <t>/radshare/EPAD/EPAD1500.0_eligible</t>
-  </si>
-  <si>
     <t>/radshare/EPAD/scripts/ExploreASL</t>
   </si>
   <si>
     <t>T1_ORI.nii</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD_repository/analysis</t>
+  </si>
+  <si>
+    <t>\d{3}EPAD\d{5}_\d</t>
+  </si>
+  <si>
+    <t>/radshare/EPAD/EPAD_repository/analysis/Population/MotionASL</t>
   </si>
 </sst>
 </file>
@@ -1028,21 +1028,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.3125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.89453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.41796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5234375" customWidth="1"/>
+    <col min="7" max="7" width="40.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
@@ -1068,7 +1068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,19 +1130,19 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1153,32 +1153,32 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>173</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>175</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>176</v>
       </c>
@@ -1237,12 +1237,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>159</v>
@@ -1251,7 +1251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>160</v>
       </c>
@@ -1262,15 +1262,15 @@
         <v>160</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>161</v>
@@ -1279,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>169</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>152</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>151</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>153</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>163</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>165</v>
       </c>
@@ -1330,15 +1330,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>170</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>188</v>
       </c>
@@ -1368,15 +1368,15 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.5234375" customWidth="1"/>
+    <col min="2" max="2" width="13.3125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -1521,16 +1521,16 @@
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="29.41796875" customWidth="1"/>
+    <col min="4" max="4" width="43.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>3</v>
       </c>

--- a/ConfigFile.xlsx
+++ b/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\Home\Github\ExploreQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFED6EB-E6F4-4398-A894-D80E84BA8EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218DBBD0-5482-41C8-ACCF-5702CF08DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="642" yWindow="492" windowWidth="21600" windowHeight="11010" xr2:uid="{7D5AD391-3090-4A17-A83F-77933628267E}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB9FB8-9BC8-41E3-B64B-BC7675F5CE89}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C5751-B2FF-495D-A24F-B5C98DCFD044}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
